--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596844.415354549</v>
+        <v>1672374.085019353</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>340.9873806407959</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>63.36492723976129</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.960716884751869</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.6509495310449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.8487707252249</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>319.3678335162777</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.46079155833878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>312.6281915354176</v>
       </c>
       <c r="F8" t="n">
-        <v>137.1279040249437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.88877949312959</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.294029535019</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.82503247366864</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>106.4552340864871</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.54581026653176</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8732650207026</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.062776493484434</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.8455358601903</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H31" t="n">
-        <v>148.4304744104651</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9325425001318</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>170.9373280502367</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.21851677552464</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>50.7513604658678</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>43.08507552695367</v>
+        <v>201.9604317337559</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2578.115424538856</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2359.480757510918</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.480757510918</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2359.480757510918</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2359.480757510918</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.014999249838</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4419,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>544.5191867458693</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4521,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.5191867458693</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.939751500713</v>
+        <v>1567.641263708174</v>
       </c>
       <c r="C8" t="n">
-        <v>1507.939751500713</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D8" t="n">
-        <v>1149.674052893962</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E8" t="n">
-        <v>763.8858002957179</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564834</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>617.0062271882081</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>406.8543143225554</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="C16" t="n">
-        <v>237.9181313946485</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="D16" t="n">
-        <v>237.9181313946485</v>
+        <v>270.2059754201221</v>
       </c>
       <c r="E16" t="n">
-        <v>237.9181313946485</v>
+        <v>122.2928818377289</v>
       </c>
       <c r="F16" t="n">
-        <v>237.9181313946485</v>
+        <v>122.2928818377289</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>122.2928818377289</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>122.2928818377289</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963253</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X16" t="n">
-        <v>809.2953582963253</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.5027791527951</v>
+        <v>420.3226148324578</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,34 +5527,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.1357418247858</v>
+        <v>782.4872769945467</v>
       </c>
       <c r="C19" t="n">
-        <v>795.1995588968789</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D19" t="n">
-        <v>645.0829194845431</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E19" t="n">
-        <v>497.16982590215</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>497.16982590215</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>328.9945042219706</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>178.5764957699139</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491545</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212476</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1323227212476</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1323227212476</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1323227212476</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G25" t="n">
-        <v>241.9570010410683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6181,16 +6183,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793943</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,31 +6211,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4036.945405494733</v>
+        <v>988.9950526279305</v>
       </c>
       <c r="C28" t="n">
-        <v>4036.945405494733</v>
+        <v>820.0588697000236</v>
       </c>
       <c r="D28" t="n">
-        <v>3886.828766082397</v>
+        <v>820.0588697000236</v>
       </c>
       <c r="E28" t="n">
-        <v>3885.755254472817</v>
+        <v>672.1457761176305</v>
       </c>
       <c r="F28" t="n">
-        <v>3738.865306974907</v>
+        <v>525.2558286197201</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>357.0805069395407</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>4036.945405494733</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y28" t="n">
-        <v>4036.945405494733</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6461,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.1765965867977</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>545.1765965867977</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D31" t="n">
-        <v>395.0599571744619</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E31" t="n">
-        <v>247.1468635920688</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F31" t="n">
-        <v>247.1468635920688</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G31" t="n">
-        <v>247.1468635920688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6664,7 +6666,7 @@
         <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6743,7 +6745,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>841.7907383782456</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C34" t="n">
-        <v>672.8545554503387</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>522.7379160380029</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>522.7379160380029</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>522.7379160380029</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X34" t="n">
-        <v>1244.231782352015</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.439203208485</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>262.5077603893734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>262.5077603893734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.787631771461</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>981.7980808734433</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.0055017299131</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,10 +7168,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,46 +7180,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089119</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>260.0156833089119</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>260.0156833089119</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>260.0156833089119</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7728,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.3743239205529</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C46" t="n">
-        <v>542.438140992646</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D46" t="n">
         <v>542.438140992646</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1255.4759821634</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="U46" t="n">
-        <v>1255.4759821634</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="V46" t="n">
-        <v>1000.791493957513</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="W46" t="n">
-        <v>711.3743239205529</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="X46" t="n">
-        <v>711.3743239205529</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.3743239205529</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>349.765300333856</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669945</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>80.5002137261522</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>133.1420986615184</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.19953892835858</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>85.59421299060332</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>60.79158701214071</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>29.87343519774024</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0405633468335</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.3711861530848</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>2.068292507345831</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4833539570709888</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>4.561025963245811</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>26.98348193336656</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>113.2750516878529</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>98.16246790166832</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>178.4624855314356</v>
+        <v>19.58712932463331</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721362</v>
       </c>
       <c r="F2" t="n">
         <v>488786.324672136</v>
@@ -26332,7 +26334,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
@@ -26341,7 +26343,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
@@ -26353,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="F4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699049</v>
+        <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446397</v>
+        <v>246943.3412446392</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446398</v>
+        <v>246943.3412446396</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712107</v>
+        <v>-164793.5212712108</v>
       </c>
       <c r="F6" t="n">
         <v>360366.5152056855</v>
@@ -26537,10 +26539,10 @@
         <v>360366.5152056855</v>
       </c>
       <c r="H6" t="n">
+        <v>360366.5152056853</v>
+      </c>
+      <c r="I6" t="n">
         <v>360366.5152056854</v>
-      </c>
-      <c r="I6" t="n">
-        <v>360366.5152056855</v>
       </c>
       <c r="J6" t="n">
         <v>183943.2960130924</v>
@@ -26552,13 +26554,13 @@
         <v>360366.5152056853</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718482</v>
+        <v>225565.4999718481</v>
       </c>
       <c r="N6" t="n">
         <v>360366.5152056853</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056853</v>
       </c>
       <c r="P6" t="n">
         <v>360366.5152056853</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>24.2855111302116</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>111.0507855692102</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>247.1769264390761</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.93370382104985</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.8850709382556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35.31520810440526</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.821082683639</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>69.30217853684417</v>
       </c>
       <c r="F8" t="n">
-        <v>269.7481417167678</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>171.2488638306984</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>75.15562915441279</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898804</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382562</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>168.5132465112263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672374.085019353</v>
+        <v>1665357.070127643</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>340.9873806407959</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>308.4614847213001</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>4.960716884751869</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>319.3678335162777</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>45.1959832877406</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>312.6281915354176</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>150.5540262346244</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.35146980185922</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>247.6470458316201</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.82503247366864</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>67.08991894886655</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>106.4552340864871</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.85017494300117</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.06315333293504</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>93.51790688365737</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="H28" t="n">
-        <v>146.8455358601903</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.22804619697938</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>170.9373280502367</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>148.4304744104652</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.71082088042286</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.21850068608589</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>201.9604317337559</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.549686895097</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>783.4840472164201</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>783.4840472164201</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.149526959219</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>404.5276295785111</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.740694543503</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.740694543503</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>506.2526476006764</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>120.4643950024322</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>113.5188942532287</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>99.59549019181961</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.641263708174</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.678746767763</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1198.678746767763</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954972</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954972</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1248.767739414852</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>994.083251208965</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>994.083251208965</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954972</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954972</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
         <v>2123.441607278215</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324578</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324578</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>270.2059754201221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>122.2928818377289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2928818377289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2928818377289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2928818377289</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324578</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324578</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324578</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.4872769945467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247865</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247865</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.1357418247865</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,16 +5764,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>729.5678040704126</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>579.4511646580769</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>431.5380710756838</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>284.6481235777734</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>116.472801897594</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>898.5039869983195</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153607</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1404.453738352188</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.9950526279305</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C28" t="n">
-        <v>820.0588697000236</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="D28" t="n">
-        <v>820.0588697000236</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="E28" t="n">
-        <v>672.1457761176305</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="F28" t="n">
-        <v>525.2558286197201</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="G28" t="n">
-        <v>357.0805069395407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.9950526279305</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153607</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D31" t="n">
-        <v>155.4478345153607</v>
+        <v>153.00299670976</v>
       </c>
       <c r="E31" t="n">
-        <v>155.4478345153607</v>
+        <v>153.00299670976</v>
       </c>
       <c r="F31" t="n">
-        <v>155.4478345153607</v>
+        <v>153.00299670976</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>153.00299670976</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1215.177199392216</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1215.177199392216</v>
+        <v>1348.986498426119</v>
       </c>
       <c r="U34" t="n">
-        <v>1215.177199392216</v>
+        <v>1348.986498426119</v>
       </c>
       <c r="V34" t="n">
-        <v>1215.177199392216</v>
+        <v>1094.302010220232</v>
       </c>
       <c r="W34" t="n">
-        <v>1215.177199392216</v>
+        <v>804.8848401832718</v>
       </c>
       <c r="X34" t="n">
-        <v>987.1876484941987</v>
+        <v>576.8952892852544</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1470.925542395859</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1247.140127185365</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954967</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954967</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1482.533946632563</v>
       </c>
       <c r="S43" t="n">
-        <v>4741.167820987513</v>
+        <v>1482.533946632563</v>
       </c>
       <c r="T43" t="n">
-        <v>4741.167820987513</v>
+        <v>1258.748531422069</v>
       </c>
       <c r="U43" t="n">
-        <v>4452.039182201071</v>
+        <v>969.619892635627</v>
       </c>
       <c r="V43" t="n">
-        <v>4197.354693995184</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W43" t="n">
-        <v>3907.937523958223</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X43" t="n">
-        <v>3679.947973060206</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1094.995824378752</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1094.995824378752</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>1094.995824378752</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.995824378752</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.995824378752</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.2032452352215</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>349.765300333856</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524669945</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208058</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1420986615184</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>38.59030656695725</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>85.59421299060332</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>151.4947344032282</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.79158701214071</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>228.6728233935898</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>129.8506750346011</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>128.0296541747319</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>162.8602268606011</v>
       </c>
       <c r="H28" t="n">
-        <v>2.068292507345831</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>93.68578217055673</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>26.98348193336656</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>73.11708664792408</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>170.2099891031804</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>133.1420986615188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>93.74585171770691</v>
       </c>
       <c r="S43" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>19.58712932463331</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721362</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="L4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="N4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446392</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446396</v>
+        <v>246943.3412446397</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712108</v>
+        <v>-165768.1125309324</v>
       </c>
       <c r="F6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="G6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="H6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="I6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.2960130924</v>
+        <v>182968.7047533707</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718481</v>
+        <v>224590.9087121266</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.2855111302116</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98.41456102041138</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>247.1769264390761</v>
+        <v>38.22219630222452</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>35.31520810440526</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>278.7267894766165</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>14.658852728006</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>69.30217853684417</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>75.15562915441279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>599.0230052898804</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665357.070127643</v>
+        <v>1670296.332976674</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
-        <v>308.4614847213001</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.264003285459337</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>307.9222910483171</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>45.1959832877406</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6509495310449</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>187.5797976477835</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.8370056895553</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.6470458316201</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.1537278750034</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>57.85017494300117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>19.06315333293504</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>225.6865628169626</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>93.51790688365737</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>103.9753683655195</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.5537603682203</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>55.22804619697938</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>148.4304744104652</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>27.71082088042286</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.21850068608589</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>223.3819581451959</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1141.749745823171</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1141.749745823171</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>783.4840472164201</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>783.4840472164201</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2191.89927156006</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>726.852213211021</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>726.852213211021</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>726.852213211021</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>726.852213211021</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>726.852213211021</v>
       </c>
       <c r="V4" t="n">
-        <v>2191.89927156006</v>
+        <v>726.852213211021</v>
       </c>
       <c r="W4" t="n">
-        <v>2191.89927156006</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X4" t="n">
-        <v>2191.89927156006</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>2191.89927156006</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.480863147839</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C5" t="n">
-        <v>864.5183462074269</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D5" t="n">
-        <v>506.2526476006764</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E5" t="n">
-        <v>120.4643950024322</v>
+        <v>378.8990031022959</v>
       </c>
       <c r="F5" t="n">
-        <v>113.5188942532287</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>99.59549019181961</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1248.767739414852</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>994.083251208965</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W13" t="n">
-        <v>994.083251208965</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X13" t="n">
-        <v>766.0937003109476</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5275,52 +5275,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>898.5039869983195</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>729.5678040704126</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>579.4511646580769</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>431.5380710756838</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>284.6481235777734</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>116.472801897594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>447.040877970705</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983195</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983195</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>898.5039869983195</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1404.453738352188</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1115.325099565746</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="V25" t="n">
-        <v>1115.325099565746</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="W25" t="n">
-        <v>825.9079295287855</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="X25" t="n">
-        <v>597.9183786307682</v>
+        <v>859.1101172131499</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>859.1101172131499</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8871334832924</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>100.8871334832924</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>100.8871334832924</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550796</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X28" t="n">
-        <v>503.3281774570622</v>
+        <v>670.8029673508208</v>
       </c>
       <c r="Y28" t="n">
-        <v>282.5355983135321</v>
+        <v>670.8029673508208</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>153.00299670976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>153.00299670976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>153.00299670976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>153.00299670976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1348.986498426119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1348.986498426119</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1094.302010220232</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>804.8848401832718</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1470.925542395859</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1247.140127185365</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U37" t="n">
-        <v>958.0114883989231</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V37" t="n">
-        <v>958.0114883989231</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W37" t="n">
-        <v>668.5943183619626</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7374,10 +7374,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1482.533946632563</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1482.533946632563</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1258.748531422069</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>969.619892635627</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>714.9354044297402</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W43" t="n">
-        <v>714.9354044297402</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317228</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>38.59030656695725</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709142</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338945</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.4947344032282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.34209567542541</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>228.6728233935898</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>129.8506750346011</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>26.4510805068654</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>128.0296541747319</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>182.2619840330578</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.27821981371703</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>162.8602268606011</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>93.68578217055673</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>73.11708664792408</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>170.2099891031804</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.18000134477742</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>93.74585171770691</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>63.14104019139509</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
@@ -26322,22 +26322,22 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721356</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="F2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
-      </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773396</v>
@@ -26432,31 +26432,31 @@
         <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446398</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="D6" t="n">
         <v>246943.3412446397</v>
       </c>
       <c r="E6" t="n">
-        <v>-165768.1125309324</v>
+        <v>-164890.980397183</v>
       </c>
       <c r="F6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="G6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="H6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="I6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797133</v>
       </c>
       <c r="J6" t="n">
-        <v>182968.7047533707</v>
+        <v>183845.8368871202</v>
       </c>
       <c r="K6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="L6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="M6" t="n">
-        <v>224590.9087121266</v>
+        <v>225468.0408458761</v>
       </c>
       <c r="N6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="O6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="P6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797131</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
-        <v>98.41456102041138</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>27.85874666945496</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>38.22219630222452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>98.95375469339433</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>278.7267894766165</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.658852728006</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>98.94320068880748</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>181.8940949889137</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758289</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.821082683639</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36612,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
